--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2469,7 +2469,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4416,7 +4416,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6331,7 +6331,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Edad-trans_orig.xlsx
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5736</v>
+        <v>5471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001288906764560486</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007799190369699775</v>
+        <v>0.007438968965859966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10317</v>
+        <v>9323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004559455961714962</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01649495277544806</v>
+        <v>0.01490513796082464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -955,19 +955,19 @@
         <v>3800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11340</v>
+        <v>12164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002792018240475669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006993177247739418</v>
+        <v>0.000695991212581881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008332556304888491</v>
+        <v>0.008937622786998729</v>
       </c>
     </row>
     <row r="8">
@@ -984,7 +984,7 @@
         <v>734541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>729753</v>
+        <v>730018</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -993,7 +993,7 @@
         <v>0.9987110932354395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922008096303002</v>
+        <v>0.9925610310341398</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>622642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>615177</v>
+        <v>616171</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1014,7 +1014,7 @@
         <v>0.9954405440382851</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9835050472245519</v>
+        <v>0.9850948620391754</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1026,19 +1026,19 @@
         <v>1357182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1349642</v>
+        <v>1348818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1360030</v>
+        <v>1360035</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9972079817595243</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9916674436951117</v>
+        <v>0.9910623772130013</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993006822752261</v>
+        <v>0.9993040087874181</v>
       </c>
     </row>
     <row r="9">
@@ -1143,19 +1143,19 @@
         <v>7598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3565</v>
+        <v>3015</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16515</v>
+        <v>16345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01101599370572042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005168131922669951</v>
+        <v>0.004370883749833751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02394388813710802</v>
+        <v>0.02369656367189035</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1164,19 +1164,19 @@
         <v>7598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2926</v>
+        <v>2917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14788</v>
+        <v>15333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005724163485429219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002204018996883179</v>
+        <v>0.002197849265365571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01114079647137886</v>
+        <v>0.01155148771651907</v>
       </c>
     </row>
     <row r="11">
@@ -1206,19 +1206,19 @@
         <v>682146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>673229</v>
+        <v>673399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686179</v>
+        <v>686729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9889840062942796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9760561118628922</v>
+        <v>0.9763034363281093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948318680773302</v>
+        <v>0.9956291162501663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1263</v>
@@ -1227,19 +1227,19 @@
         <v>1319796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312606</v>
+        <v>1312061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324468</v>
+        <v>1324477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942758365145707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9888592035286208</v>
+        <v>0.9884485122834811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9977959810031168</v>
+        <v>0.9978021507346344</v>
       </c>
     </row>
     <row r="12">
@@ -1331,19 +1331,19 @@
         <v>9867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4755</v>
+        <v>5020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19165</v>
+        <v>18952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01900611100124699</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009160114255519679</v>
+        <v>0.009670365931920473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03691707029975563</v>
+        <v>0.03650602122115532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1352,19 +1352,19 @@
         <v>13687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7250</v>
+        <v>7402</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23205</v>
+        <v>23690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02654341895699768</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01406026293661308</v>
+        <v>0.01435498943217137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04500209252210401</v>
+        <v>0.04594236453442243</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1373,19 +1373,19 @@
         <v>23554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15437</v>
+        <v>14897</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35543</v>
+        <v>35243</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02276199973842738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01491786801220895</v>
+        <v>0.01439581104769724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03434799959472473</v>
+        <v>0.03405775321385112</v>
       </c>
     </row>
     <row r="14">
@@ -1402,19 +1402,19 @@
         <v>509280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>499982</v>
+        <v>500195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514392</v>
+        <v>514127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9809938889987529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9630829297002443</v>
+        <v>0.9634939787788449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9908398857444803</v>
+        <v>0.9903296340680796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>489</v>
@@ -1423,19 +1423,19 @@
         <v>501955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>492437</v>
+        <v>491952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>508392</v>
+        <v>508240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9734565810430024</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9549979074778963</v>
+        <v>0.9540576354655776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.985939737063387</v>
+        <v>0.9856450105678287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>964</v>
@@ -1444,19 +1444,19 @@
         <v>1011235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>999246</v>
+        <v>999546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1019352</v>
+        <v>1019892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9772380002615726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.965652000405275</v>
+        <v>0.9659422467861488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.985082131987791</v>
+        <v>0.9856041889523027</v>
       </c>
     </row>
     <row r="15">
@@ -1548,19 +1548,19 @@
         <v>29138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19383</v>
+        <v>19349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41058</v>
+        <v>41633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07534811612962256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0501235618375557</v>
+        <v>0.05003370016572662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1061734714830751</v>
+        <v>0.1076585825596217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1569,19 +1569,19 @@
         <v>36177</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25871</v>
+        <v>25788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49850</v>
+        <v>49375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08954907294050872</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06404000187640389</v>
+        <v>0.06383489101485933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1233955294190709</v>
+        <v>0.1222186997566067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -1590,19 +1590,19 @@
         <v>65314</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50336</v>
+        <v>50645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80396</v>
+        <v>81895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08260373312652883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06366028318845973</v>
+        <v>0.06405108083071355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1016770661525001</v>
+        <v>0.1035727296912514</v>
       </c>
     </row>
     <row r="17">
@@ -1619,19 +1619,19 @@
         <v>357572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>345652</v>
+        <v>345077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>367327</v>
+        <v>367361</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9246518838703774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8938265285169251</v>
+        <v>0.8923414174403784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9498764381624443</v>
+        <v>0.9499662998342735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -1640,19 +1640,19 @@
         <v>367809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354136</v>
+        <v>354611</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378115</v>
+        <v>378198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9104509270594913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8766044705809292</v>
+        <v>0.8777813002433934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9359599981235961</v>
+        <v>0.9361651089851407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>725</v>
@@ -1661,19 +1661,19 @@
         <v>725382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>710300</v>
+        <v>708801</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>740360</v>
+        <v>740051</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9173962668734712</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8983229338474998</v>
+        <v>0.8964272703087487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9363397168115402</v>
+        <v>0.9359489191692866</v>
       </c>
     </row>
     <row r="18">
@@ -1765,19 +1765,19 @@
         <v>17532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10968</v>
+        <v>10381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27124</v>
+        <v>26155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05992021299860531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03748625245176981</v>
+        <v>0.03547918767438753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09270682861996551</v>
+        <v>0.08939271099625577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1786,19 +1786,19 @@
         <v>53146</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41749</v>
+        <v>40739</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66729</v>
+        <v>65934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1549738440652997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.121740535265177</v>
+        <v>0.1187951088026697</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1945812773571498</v>
+        <v>0.1922650256262385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -1807,19 +1807,19 @@
         <v>70677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56281</v>
+        <v>56541</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86956</v>
+        <v>86836</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1112125023660791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.088558775088333</v>
+        <v>0.08896807953098075</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1368269363568969</v>
+        <v>0.1366382088059845</v>
       </c>
     </row>
     <row r="20">
@@ -1836,19 +1836,19 @@
         <v>275051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265459</v>
+        <v>266428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281615</v>
+        <v>282202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9400797870013947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9072931713800346</v>
+        <v>0.9106072890037449</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9625137475482307</v>
+        <v>0.9645208123256126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>314</v>
@@ -1857,19 +1857,19 @@
         <v>289788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>276205</v>
+        <v>277000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301185</v>
+        <v>302195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8450261559347002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8054187226428502</v>
+        <v>0.8077349743737616</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.878259464734823</v>
+        <v>0.8812048911973311</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -1878,19 +1878,19 @@
         <v>564840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>548561</v>
+        <v>548681</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>579236</v>
+        <v>578976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.888787497633921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8631730636431028</v>
+        <v>0.8633617911940165</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9114412249116668</v>
+        <v>0.9110319204690194</v>
       </c>
     </row>
     <row r="21">
@@ -1982,19 +1982,19 @@
         <v>37808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28146</v>
+        <v>27955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48527</v>
+        <v>48541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1801383687390862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1341046613494438</v>
+        <v>0.13319357332285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2312098340964168</v>
+        <v>0.2312786785658727</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -2003,19 +2003,19 @@
         <v>58072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43607</v>
+        <v>43333</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72457</v>
+        <v>74523</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1739176630062431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1305963203612686</v>
+        <v>0.1297757329048988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2169955798690159</v>
+        <v>0.2231847217035487</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2024,19 +2024,19 @@
         <v>95880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77141</v>
+        <v>77608</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113420</v>
+        <v>112501</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1763186229811082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1418580760386405</v>
+        <v>0.1427168582413751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2085731852041962</v>
+        <v>0.2068827713195117</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>172075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>161356</v>
+        <v>161342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>181737</v>
+        <v>181928</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8198616312609137</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7687901659035832</v>
+        <v>0.7687213214341273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8658953386505562</v>
+        <v>0.8668064266771501</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>240</v>
@@ -2074,19 +2074,19 @@
         <v>275836</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261451</v>
+        <v>259385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290301</v>
+        <v>290575</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8260823369937569</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7830044201309841</v>
+        <v>0.7768152782964514</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8694036796387314</v>
+        <v>0.8702242670951013</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>419</v>
@@ -2095,19 +2095,19 @@
         <v>447911</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430371</v>
+        <v>431290</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>466650</v>
+        <v>466183</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8236813770188918</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7914268147958038</v>
+        <v>0.7931172286804882</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8581419239613594</v>
+        <v>0.8572831417586249</v>
       </c>
     </row>
     <row r="24">
@@ -2199,19 +2199,19 @@
         <v>95292</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0290922633861063</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2220,19 +2220,19 @@
         <v>171532</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05076114029983908</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -2241,19 +2241,19 @@
         <v>266824</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04009548868701666</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>3180233</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3159557</v>
+        <v>3159583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3197632</v>
+        <v>3197542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9709077366138937</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9645956196524064</v>
+        <v>0.9646036627397565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.976219672539021</v>
+        <v>0.9761922068903786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3133</v>
@@ -2291,19 +2291,19 @@
         <v>3207665</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3178436</v>
+        <v>3179803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3231902</v>
+        <v>3230964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.949238859700161</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9405892438088574</v>
+        <v>0.9409937514635676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9564111331752407</v>
+        <v>0.9561335681707499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6248</v>
@@ -2312,19 +2312,19 @@
         <v>6387898</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6353683</v>
+        <v>6353760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6417025</v>
+        <v>6419672</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9599045113129834</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9547630770469275</v>
+        <v>0.9547747027330119</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.964281394165911</v>
+        <v>0.964679156827273</v>
       </c>
     </row>
     <row r="27">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7523</v>
+        <v>6705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005120104613753382</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01752263092457209</v>
+        <v>0.01561743129156533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8609</v>
+        <v>7931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00249110478571396</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009755987730134809</v>
+        <v>0.008987301872044729</v>
       </c>
     </row>
     <row r="5">
@@ -2735,7 +2735,7 @@
         <v>427141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421816</v>
+        <v>422634</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>429339</v>
@@ -2744,7 +2744,7 @@
         <v>0.9948798953862467</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9824773690754294</v>
+        <v>0.9843825687084348</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>880247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873836</v>
+        <v>874514</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>882445</v>
@@ -2765,7 +2765,7 @@
         <v>0.9975088952142861</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9902440122698639</v>
+        <v>0.9910126981279552</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2860,19 +2860,19 @@
         <v>3873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12186</v>
+        <v>13148</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005644010811998706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001459135222626241</v>
+        <v>0.00145945489838485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01775747458013264</v>
+        <v>0.01915991026560275</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2894,19 +2894,19 @@
         <v>3873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10825</v>
+        <v>12553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00298979404526558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007716299744912725</v>
+        <v>0.0007710029792165838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008355800121778492</v>
+        <v>0.009689942263835767</v>
       </c>
     </row>
     <row r="8">
@@ -2923,19 +2923,19 @@
         <v>682365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>674052</v>
+        <v>673090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685237</v>
+        <v>685236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9943559891880013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9822425254198665</v>
+        <v>0.9808400897343968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985408647773738</v>
+        <v>0.9985405451016152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -2957,19 +2957,19 @@
         <v>1291578</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1284626</v>
+        <v>1282898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1294451</v>
+        <v>1294452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9970102059547344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9916441998782193</v>
+        <v>0.9903100577361639</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992283700255087</v>
+        <v>0.9992289970207834</v>
       </c>
     </row>
     <row r="9">
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5379</v>
+        <v>5759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001416816950320006</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007909357189166745</v>
+        <v>0.008468154880517687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3082,19 +3082,19 @@
         <v>6871</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2878</v>
+        <v>2890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13160</v>
+        <v>12751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009732740580396627</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004076300023845176</v>
+        <v>0.004093569178846568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0186418466459066</v>
+        <v>0.01806268560784823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3103,19 +3103,19 @@
         <v>7834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3782</v>
+        <v>3678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14014</v>
+        <v>14648</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00565242337836007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002728757241942045</v>
+        <v>0.002653527621272531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01011101655200038</v>
+        <v>0.01056833230241377</v>
       </c>
     </row>
     <row r="11">
@@ -3132,7 +3132,7 @@
         <v>679090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674675</v>
+        <v>674295</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>680054</v>
@@ -3141,7 +3141,7 @@
         <v>0.99858318304968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9920906428108334</v>
+        <v>0.9915318451194823</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3153,19 +3153,19 @@
         <v>699064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>692775</v>
+        <v>693184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>703057</v>
+        <v>703045</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9902672594196034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9813581533540934</v>
+        <v>0.9819373143921518</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9959236999761548</v>
+        <v>0.9959064308211535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1304</v>
@@ -3174,19 +3174,19 @@
         <v>1378155</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1371975</v>
+        <v>1371341</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382207</v>
+        <v>1382311</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.99434757662164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9898889834479995</v>
+        <v>0.9894316676975863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972712427580579</v>
+        <v>0.9973464723787273</v>
       </c>
     </row>
     <row r="12">
@@ -3278,19 +3278,19 @@
         <v>6214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2093</v>
+        <v>2060</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15662</v>
+        <v>14351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01011100305088299</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003406111896905282</v>
+        <v>0.003352390408602096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02548204439860835</v>
+        <v>0.02334969460887059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3299,19 +3299,19 @@
         <v>16190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9064</v>
+        <v>8956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25083</v>
+        <v>26123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02636538024952149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01476116420754833</v>
+        <v>0.01458443229560373</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04084773861356875</v>
+        <v>0.04254107031250164</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3320,19 +3320,19 @@
         <v>22405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13948</v>
+        <v>14712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35129</v>
+        <v>34858</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01823459253366582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01135156449272872</v>
+        <v>0.01197349292395087</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02859037319432526</v>
+        <v>0.02836968930672074</v>
       </c>
     </row>
     <row r="14">
@@ -3349,19 +3349,19 @@
         <v>608403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>598955</v>
+        <v>600266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612524</v>
+        <v>612557</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.989888996949117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9745179556013908</v>
+        <v>0.9766503053911292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965938881030947</v>
+        <v>0.9966476095913979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -3370,19 +3370,19 @@
         <v>597882</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>588989</v>
+        <v>587949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>605008</v>
+        <v>605116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9736346197504785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9591522613864311</v>
+        <v>0.9574589296874981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9852388357924509</v>
+        <v>0.9854155677043954</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1065</v>
@@ -3391,19 +3391,19 @@
         <v>1206284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1193560</v>
+        <v>1193831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1214741</v>
+        <v>1213977</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9817654074663342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9714096268056747</v>
+        <v>0.9716303106932788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9886484355072712</v>
+        <v>0.9880265070760491</v>
       </c>
     </row>
     <row r="15">
@@ -3495,19 +3495,19 @@
         <v>11809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6194</v>
+        <v>5521</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20391</v>
+        <v>20060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02756978372119596</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01445968478336962</v>
+        <v>0.01288918482513958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04760325948897538</v>
+        <v>0.04683243233762217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3516,19 +3516,19 @@
         <v>40789</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29744</v>
+        <v>29806</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55286</v>
+        <v>53612</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0910880294729154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06642295137445177</v>
+        <v>0.06656127260229656</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1234623342293751</v>
+        <v>0.1197230453428264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -3537,19 +3537,19 @@
         <v>52599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39866</v>
+        <v>38765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69000</v>
+        <v>67012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06003417489224395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04550142840592358</v>
+        <v>0.04424494053211536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07875457567291205</v>
+        <v>0.07648483512491089</v>
       </c>
     </row>
     <row r="17">
@@ -3566,19 +3566,19 @@
         <v>416535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>407953</v>
+        <v>408284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>422150</v>
+        <v>422823</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.972430216278804</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9523967405110247</v>
+        <v>0.9531675676623779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855403152166304</v>
+        <v>0.9871108151748607</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>368</v>
@@ -3587,19 +3587,19 @@
         <v>407011</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>392514</v>
+        <v>394188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>418056</v>
+        <v>417994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9089119705270846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8765376657706249</v>
+        <v>0.8802769546571736</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9335770486255482</v>
+        <v>0.9334387273977035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>749</v>
@@ -3608,19 +3608,19 @@
         <v>823545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>807144</v>
+        <v>809132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>836278</v>
+        <v>837379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9399658251077561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9212454243270879</v>
+        <v>0.9235151648750889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9544985715940764</v>
+        <v>0.9557550594678846</v>
       </c>
     </row>
     <row r="18">
@@ -3712,19 +3712,19 @@
         <v>14472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8163</v>
+        <v>8090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23633</v>
+        <v>23699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04701989157065271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02652079256003831</v>
+        <v>0.02628391744265402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07678205398435209</v>
+        <v>0.07699741909737672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -3733,19 +3733,19 @@
         <v>54345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41886</v>
+        <v>41744</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69668</v>
+        <v>69259</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1539256420593415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1186385946484776</v>
+        <v>0.1182357286522102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1973257569538213</v>
+        <v>0.1961669695891419</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -3754,19 +3754,19 @@
         <v>68817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53139</v>
+        <v>53316</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86454</v>
+        <v>85990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1041339390155537</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08040899073875335</v>
+        <v>0.08067780805169675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1308223225280465</v>
+        <v>0.1301192225792091</v>
       </c>
     </row>
     <row r="20">
@@ -3783,19 +3783,19 @@
         <v>293323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284162</v>
+        <v>284096</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299632</v>
+        <v>299705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9529801084293473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9232179460156481</v>
+        <v>0.9230025809026233</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9734792074399617</v>
+        <v>0.973716082557346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -3804,19 +3804,19 @@
         <v>298714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>283391</v>
+        <v>283800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311173</v>
+        <v>311315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8460743579406584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8026742430461787</v>
+        <v>0.8038330304108582</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8813614053515224</v>
+        <v>0.8817642713477898</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>560</v>
@@ -3825,19 +3825,19 @@
         <v>592037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>574400</v>
+        <v>574864</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>607715</v>
+        <v>607538</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8958660609844463</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8691776774719532</v>
+        <v>0.869880777420791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9195910092612466</v>
+        <v>0.9193221919483033</v>
       </c>
     </row>
     <row r="21">
@@ -3929,19 +3929,19 @@
         <v>33996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23945</v>
+        <v>23678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47176</v>
+        <v>48061</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1365104121773852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0961506427330524</v>
+        <v>0.09508047498671082</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1894353955211383</v>
+        <v>0.192986832073234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -3950,19 +3950,19 @@
         <v>86125</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70535</v>
+        <v>69447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105011</v>
+        <v>104705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.223287996093622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1828693183774904</v>
+        <v>0.1800467364878796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2722498634671189</v>
+        <v>0.2714565380626931</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -3971,19 +3971,19 @@
         <v>120121</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100635</v>
+        <v>100680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>140897</v>
+        <v>140331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1892419187058391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.158543134752601</v>
+        <v>0.1586136405217176</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2219721483378441</v>
+        <v>0.2210800105469084</v>
       </c>
     </row>
     <row r="23">
@@ -4000,19 +4000,19 @@
         <v>215040</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201860</v>
+        <v>200975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>225091</v>
+        <v>225358</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8634895878226149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8105646044788616</v>
+        <v>0.8070131679267661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9038493572669475</v>
+        <v>0.9049195250132894</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -4021,19 +4021,19 @@
         <v>299589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>280703</v>
+        <v>281009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>315179</v>
+        <v>316267</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.776712003906378</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7277501365328812</v>
+        <v>0.7285434619373069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8171306816225097</v>
+        <v>0.8199532635121204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>460</v>
@@ -4042,19 +4042,19 @@
         <v>514629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>493853</v>
+        <v>494419</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>534115</v>
+        <v>534070</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8107580812941608</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7780278516621557</v>
+        <v>0.7789199894530916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.841456865247399</v>
+        <v>0.8413863594782823</v>
       </c>
     </row>
     <row r="24">
@@ -4146,19 +4146,19 @@
         <v>71329</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02086134644048991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>191</v>
@@ -4167,19 +4167,19 @@
         <v>206519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05825409110787749</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>254</v>
@@ -4188,19 +4188,19 @@
         <v>277847</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03989583198776704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
     </row>
     <row r="26">
@@ -4217,19 +4217,19 @@
         <v>3347859</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3329820</v>
+        <v>3328240</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3364207</v>
+        <v>3363175</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9791386535595101</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9738629345038432</v>
+        <v>0.9734007766005135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9839198061044262</v>
+        <v>0.9836181207692618</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3095</v>
@@ -4238,19 +4238,19 @@
         <v>3338615</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3310120</v>
+        <v>3305755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3368674</v>
+        <v>3364976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9417459088921225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9337079792047086</v>
+        <v>0.9324766864326349</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9502247706458119</v>
+        <v>0.9491815036326807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6234</v>
@@ -4259,19 +4259,19 @@
         <v>6686475</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6649697</v>
+        <v>6647950</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6722441</v>
+        <v>6719502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.960104168012233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9548232845245288</v>
+        <v>0.9545724470939024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9652685250104761</v>
+        <v>0.9648465515175186</v>
       </c>
     </row>
     <row r="27">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6818</v>
+        <v>6859</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00349481488686283</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01209874585035068</v>
+        <v>0.01217199677202245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6852</v>
+        <v>6066</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001706596779869757</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005937140084584552</v>
+        <v>0.005256016588713729</v>
       </c>
     </row>
     <row r="8">
@@ -4851,7 +4851,7 @@
         <v>561575</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556726</v>
+        <v>556685</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -4860,7 +4860,7 @@
         <v>0.9965051851131371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9879012541496494</v>
+        <v>0.9878280032279775</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4872,7 +4872,7 @@
         <v>1152071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1147188</v>
+        <v>1147974</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1154040</v>
@@ -4881,7 +4881,7 @@
         <v>0.9982934032201303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9940628599154153</v>
+        <v>0.9947439834112848</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7199</v>
+        <v>8260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003083338188736185</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01075984695285998</v>
+        <v>0.01234559630250004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4997,19 +4997,19 @@
         <v>3791</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8591</v>
+        <v>9530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005731763837635728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001473836095292238</v>
+        <v>0.001462551444017044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01298871333470743</v>
+        <v>0.01440968749349912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5018,19 +5018,19 @@
         <v>5854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1960</v>
+        <v>2025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12336</v>
+        <v>12185</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004399876938852938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001473016806846545</v>
+        <v>0.001522085091227136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009271529329720692</v>
+        <v>0.009158052720151249</v>
       </c>
     </row>
     <row r="11">
@@ -5047,7 +5047,7 @@
         <v>667034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661898</v>
+        <v>660837</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5056,7 +5056,7 @@
         <v>0.9969166618112638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.98924015304714</v>
+        <v>0.9876544036974999</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5068,19 +5068,19 @@
         <v>657595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652795</v>
+        <v>651856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660411</v>
+        <v>660419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9942682361623643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9870112866652926</v>
+        <v>0.9855903125065009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985261639047078</v>
+        <v>0.9985374485559829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1297</v>
@@ -5089,19 +5089,19 @@
         <v>1324629</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1318147</v>
+        <v>1318298</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328523</v>
+        <v>1328458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9956001230611471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9907284706702787</v>
+        <v>0.9908419472798493</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985269831931535</v>
+        <v>0.9984779149087729</v>
       </c>
     </row>
     <row r="12">
@@ -5193,19 +5193,19 @@
         <v>3281</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8830</v>
+        <v>8784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005077939279255313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001666885868209071</v>
+        <v>0.001665174097444753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0136678918506119</v>
+        <v>0.01359647440280034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5214,19 +5214,19 @@
         <v>18247</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10623</v>
+        <v>10916</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28256</v>
+        <v>28936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02811164733163973</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01636604651611008</v>
+        <v>0.01681773771798514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04353202556671885</v>
+        <v>0.04457983267502264</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5235,19 +5235,19 @@
         <v>21527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13399</v>
+        <v>13504</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33205</v>
+        <v>33136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01662172538386775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01034560550926416</v>
+        <v>0.0104264343417412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0256383139830425</v>
+        <v>0.02558493431134194</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>642767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>637218</v>
+        <v>637264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>644971</v>
+        <v>644972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9949220607207447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9863321081493881</v>
+        <v>0.9864035255971997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983331141317909</v>
+        <v>0.9983348259025552</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>586</v>
@@ -5285,19 +5285,19 @@
         <v>630830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>620821</v>
+        <v>620141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>638454</v>
+        <v>638161</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9718883526683603</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9564679744332812</v>
+        <v>0.9554201673249775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9836339534838899</v>
+        <v>0.9831822622820149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1165</v>
@@ -5306,19 +5306,19 @@
         <v>1273598</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1261920</v>
+        <v>1261989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1281726</v>
+        <v>1281621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9833782746161323</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9743616860169574</v>
+        <v>0.9744150656886584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9896543944907358</v>
+        <v>0.9895735656582592</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         <v>10350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4835</v>
+        <v>4996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21144</v>
+        <v>20830</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02165655667426939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01011706079143697</v>
+        <v>0.0104531518282391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04424177413852916</v>
+        <v>0.04358581844261428</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -5431,19 +5431,19 @@
         <v>27655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19226</v>
+        <v>17766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39188</v>
+        <v>38699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05565980082675673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03869543333890824</v>
+        <v>0.03575780908572496</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07887205571106903</v>
+        <v>0.07788939043868771</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -5452,19 +5452,19 @@
         <v>38005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27280</v>
+        <v>26419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51794</v>
+        <v>52161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0389883681774564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02798586960509912</v>
+        <v>0.02710304732380854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05313510725029993</v>
+        <v>0.05351171696551324</v>
       </c>
     </row>
     <row r="17">
@@ -5481,19 +5481,19 @@
         <v>467568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456774</v>
+        <v>457088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>473083</v>
+        <v>472922</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783434433257306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9557582258614707</v>
+        <v>0.9564141815573854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.989882939208563</v>
+        <v>0.989546848171761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>408</v>
@@ -5502,19 +5502,19 @@
         <v>469194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457661</v>
+        <v>458150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>477623</v>
+        <v>479083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9443401991732433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9211279442889311</v>
+        <v>0.9221106095613124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9613045666610918</v>
+        <v>0.9642421909142752</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>824</v>
@@ -5523,19 +5523,19 @@
         <v>936762</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>922973</v>
+        <v>922606</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>947487</v>
+        <v>948348</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9610116318225436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9468648927497004</v>
+        <v>0.946488283034487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720141303949009</v>
+        <v>0.9728969526761916</v>
       </c>
     </row>
     <row r="18">
@@ -5627,19 +5627,19 @@
         <v>9945</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5085</v>
+        <v>4941</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18873</v>
+        <v>17135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02974643102842672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01520878880915136</v>
+        <v>0.01477842197423165</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05645119185237285</v>
+        <v>0.05125325215410844</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5648,19 +5648,19 @@
         <v>35019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25016</v>
+        <v>24709</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47137</v>
+        <v>48358</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09270046834347548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06622204569679974</v>
+        <v>0.06541022261435979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.124780375124266</v>
+        <v>0.1280122031292126</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -5669,19 +5669,19 @@
         <v>44964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33778</v>
+        <v>33091</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58773</v>
+        <v>58955</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06314329990630847</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04743516479700632</v>
+        <v>0.04647060810142845</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08253587998056959</v>
+        <v>0.08279161492786039</v>
       </c>
     </row>
     <row r="20">
@@ -5698,19 +5698,19 @@
         <v>324385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>315457</v>
+        <v>317195</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>329245</v>
+        <v>329389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9702535689715733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9435488081476273</v>
+        <v>0.9487467478458915</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9847912111908488</v>
+        <v>0.9852215780257684</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>320</v>
@@ -5719,19 +5719,19 @@
         <v>342743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>330625</v>
+        <v>329404</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>352746</v>
+        <v>353053</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9072995316565245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8752196248757339</v>
+        <v>0.8719877968707874</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9337779543032002</v>
+        <v>0.9345897773856401</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>635</v>
@@ -5740,19 +5740,19 @@
         <v>667128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>653319</v>
+        <v>653137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>678314</v>
+        <v>679001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9368567000936915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9174641200194305</v>
+        <v>0.9172083850721398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9525648352029937</v>
+        <v>0.9535293918985718</v>
       </c>
     </row>
     <row r="21">
@@ -5844,19 +5844,19 @@
         <v>19556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12946</v>
+        <v>12973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28975</v>
+        <v>27911</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07609558196586508</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05037354045985624</v>
+        <v>0.05047833186849123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1127459219344995</v>
+        <v>0.1086032665956843</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -5865,19 +5865,19 @@
         <v>47878</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34876</v>
+        <v>34861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63206</v>
+        <v>61802</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1196434282892459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08715307239495781</v>
+        <v>0.08711478192098106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1579479215154109</v>
+        <v>0.1544407750149001</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -5886,19 +5886,19 @@
         <v>67434</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52742</v>
+        <v>52763</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85251</v>
+        <v>86990</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1026131917628318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08025610688319505</v>
+        <v>0.08028867545446064</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.129725475054074</v>
+        <v>0.1323708751637383</v>
       </c>
     </row>
     <row r="23">
@@ -5915,19 +5915,19 @@
         <v>237442</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>228023</v>
+        <v>229087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244052</v>
+        <v>244025</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9239044180341349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8872540780655005</v>
+        <v>0.8913967334043159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9496264595401437</v>
+        <v>0.9495216681315087</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>263</v>
@@ -5936,19 +5936,19 @@
         <v>352291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>336963</v>
+        <v>338367</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>365293</v>
+        <v>365308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8803565717107541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8420520784845892</v>
+        <v>0.8455592249850999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9128469276050422</v>
+        <v>0.9128852180790189</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>542</v>
@@ -5957,19 +5957,19 @@
         <v>589733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>571916</v>
+        <v>570177</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>604425</v>
+        <v>604404</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8973868082371682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8702745249459261</v>
+        <v>0.8676291248362616</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9197438931168049</v>
+        <v>0.9197113245455393</v>
       </c>
     </row>
     <row r="24">
@@ -6061,19 +6061,19 @@
         <v>45195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01331484251999249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -6082,19 +6082,19 @@
         <v>134558</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03796198106553473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -6103,19 +6103,19 @@
         <v>179753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0259051542617142</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
     </row>
     <row r="26">
@@ -6132,19 +6132,19 @@
         <v>3349155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3333513</v>
+        <v>3334646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3361308</v>
+        <v>3361711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9866851574800075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.982077040001853</v>
+        <v>0.9824108958211833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9902656802370504</v>
+        <v>0.9903843530264433</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3219</v>
@@ -6153,19 +6153,19 @@
         <v>3409984</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3385387</v>
+        <v>3382016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3433256</v>
+        <v>3432248</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9620380189344653</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.955098616240876</v>
+        <v>0.9541476220999113</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9686035906737799</v>
+        <v>0.9683190824612974</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6404</v>
@@ -6174,19 +6174,19 @@
         <v>6759139</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6730834</v>
+        <v>6731042</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6785119</v>
+        <v>6786574</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9740948457382858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9700156506779648</v>
+        <v>0.9700456869270824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9778389056895757</v>
+        <v>0.978048613838544</v>
       </c>
     </row>
     <row r="27">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17416</v>
+        <v>16882</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01410392030216677</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04804251690742612</v>
+        <v>0.04656937297022913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6558,16 +6558,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18392</v>
+        <v>19555</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006637422519357724</v>
+        <v>0.006637422519357723</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02387627980538572</v>
+        <v>0.02538558918353059</v>
       </c>
     </row>
     <row r="5">
@@ -6597,16 +6597,16 @@
         <v>357399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345096</v>
+        <v>345630</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9858960796978332</v>
+        <v>0.9858960796978331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9519574830925742</v>
+        <v>0.9534306270297702</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6618,16 +6618,16 @@
         <v>765192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751913</v>
+        <v>750750</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9933625774806425</v>
+        <v>0.9933625774806423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761237201946145</v>
+        <v>0.9746144108164695</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002861599088971093</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -6743,19 +6743,19 @@
         <v>3440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9270</v>
+        <v>9095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006865897598059049</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00211164633539474</v>
+        <v>0.002134634133401781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01849955834827491</v>
+        <v>0.01815071754098441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -6764,19 +6764,19 @@
         <v>4805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11292</v>
+        <v>12130</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0049132769386498</v>
+        <v>0.004913276938649801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001294613594414051</v>
+        <v>0.001272478526433353</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01154615783424445</v>
+        <v>0.01240365765804392</v>
       </c>
     </row>
     <row r="8">
@@ -6793,7 +6793,7 @@
         <v>475525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470686</v>
+        <v>469178</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6802,7 +6802,7 @@
         <v>0.9971384009110289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869903821559227</v>
+        <v>0.983828658484584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6814,19 +6814,19 @@
         <v>497643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>491813</v>
+        <v>491988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500025</v>
+        <v>500013</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9931341024019408</v>
+        <v>0.9931341024019409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9815004416517251</v>
+        <v>0.9818492824590154</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9978883536646053</v>
+        <v>0.9978653658665982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>758</v>
@@ -6835,19 +6835,19 @@
         <v>973168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>966681</v>
+        <v>965843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>976707</v>
+        <v>976729</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950867230613503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9884538421657555</v>
+        <v>0.987596342341956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.998705386405586</v>
+        <v>0.9987275214735667</v>
       </c>
     </row>
     <row r="9">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8295</v>
+        <v>8499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004021751299473695</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01336162232218849</v>
+        <v>0.01368973493877453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -6960,19 +6960,19 @@
         <v>8325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4075</v>
+        <v>4495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13997</v>
+        <v>14396</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01340033071102253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006558793214135018</v>
+        <v>0.007234513936438688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02253043447293619</v>
+        <v>0.02317204092111714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -6981,19 +6981,19 @@
         <v>10822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6422</v>
+        <v>5927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18653</v>
+        <v>18424</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008712663703157699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005170239603249218</v>
+        <v>0.004771771713397237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01501706997580589</v>
+        <v>0.01483304950120354</v>
       </c>
     </row>
     <row r="11">
@@ -7010,7 +7010,7 @@
         <v>618340</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612542</v>
+        <v>612338</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>620837</v>
@@ -7019,7 +7019,7 @@
         <v>0.9959782487005264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9866383776778119</v>
+        <v>0.9863102650612254</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -7031,19 +7031,19 @@
         <v>612942</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607270</v>
+        <v>606871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617192</v>
+        <v>616772</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9865996692889775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9774695655270643</v>
+        <v>0.9768279590788828</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9934412067858654</v>
+        <v>0.9927654860635613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1378</v>
@@ -7052,19 +7052,19 @@
         <v>1231281</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1223450</v>
+        <v>1223679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1235681</v>
+        <v>1236176</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9912873362968423</v>
+        <v>0.9912873362968422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.984982930024194</v>
+        <v>0.9851669504987959</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948297603967508</v>
+        <v>0.9952282282866027</v>
       </c>
     </row>
     <row r="12">
@@ -7156,19 +7156,19 @@
         <v>13380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6936</v>
+        <v>7257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23444</v>
+        <v>24008</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01909712995203704</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009899784961804377</v>
+        <v>0.01035746900341133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03346241506817639</v>
+        <v>0.03426756095344711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -7177,19 +7177,19 @@
         <v>20402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14005</v>
+        <v>14033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28570</v>
+        <v>28332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02768654258835007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01900631495130979</v>
+        <v>0.01904329399694653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03877168837108859</v>
+        <v>0.03844766093792179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -7198,19 +7198,19 @@
         <v>33782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24335</v>
+        <v>24165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44426</v>
+        <v>45856</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02350019470286431</v>
+        <v>0.02350019470286432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01692883134195007</v>
+        <v>0.0168102863077119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03090495059610821</v>
+        <v>0.03189952836862526</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>687237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>677173</v>
+        <v>676609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>693681</v>
+        <v>693360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9809028700479629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9665375849318235</v>
+        <v>0.9657324390465526</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901002150381955</v>
+        <v>0.9896425309965886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1110</v>
@@ -7248,19 +7248,19 @@
         <v>716484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>708316</v>
+        <v>708554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722881</v>
+        <v>722853</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9723134574116501</v>
+        <v>0.9723134574116499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9612283116289115</v>
+        <v>0.9615523390620783</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9809936850486902</v>
+        <v>0.9809567060030532</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1763</v>
@@ -7269,19 +7269,19 @@
         <v>1403722</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1393078</v>
+        <v>1391648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1413169</v>
+        <v>1413339</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9764998052971355</v>
+        <v>0.9764998052971358</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9690950494038917</v>
+        <v>0.9681004716313744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9830711686580499</v>
+        <v>0.9831897136922879</v>
       </c>
     </row>
     <row r="15">
@@ -7373,19 +7373,19 @@
         <v>14615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8513</v>
+        <v>8713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22894</v>
+        <v>24140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02402325822491366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0139935573270025</v>
+        <v>0.01432264828193881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03763166547250895</v>
+        <v>0.03968029024035753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -7394,19 +7394,19 @@
         <v>41790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32139</v>
+        <v>32823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51165</v>
+        <v>52210</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06879595161513534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05290743563070895</v>
+        <v>0.05403483875856435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08422953305955798</v>
+        <v>0.08594898376536533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -7415,19 +7415,19 @@
         <v>56405</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44690</v>
+        <v>45125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70807</v>
+        <v>70126</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.046392827749411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03675779423481335</v>
+        <v>0.03711512283338849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05823833822532885</v>
+        <v>0.05767871784586166</v>
       </c>
     </row>
     <row r="17">
@@ -7444,19 +7444,19 @@
         <v>593744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>585465</v>
+        <v>584219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599846</v>
+        <v>599646</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9759767417750865</v>
+        <v>0.9759767417750863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9623683345274915</v>
+        <v>0.9603197097596422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9860064426729979</v>
+        <v>0.985677351718061</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>934</v>
@@ -7465,19 +7465,19 @@
         <v>565658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>556283</v>
+        <v>555238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>575309</v>
+        <v>574625</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9312040483848645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9157704669404418</v>
+        <v>0.9140510162346347</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9470925643692911</v>
+        <v>0.9459651612414356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1580</v>
@@ -7486,19 +7486,19 @@
         <v>1159402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1145000</v>
+        <v>1145681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1171117</v>
+        <v>1170682</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.953607172250589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.941761661774671</v>
+        <v>0.9423212821541382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9632422057651866</v>
+        <v>0.9628848771666115</v>
       </c>
     </row>
     <row r="18">
@@ -7590,19 +7590,19 @@
         <v>12836</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8063</v>
+        <v>7496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19027</v>
+        <v>19439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0315938777075291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01984613285467702</v>
+        <v>0.01844978973250103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04683363060226842</v>
+        <v>0.0478477918576358</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -7611,19 +7611,19 @@
         <v>58199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48531</v>
+        <v>47342</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69012</v>
+        <v>68897</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1325210561684459</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1105073565867928</v>
+        <v>0.1077996428110292</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.157142907369098</v>
+        <v>0.1568820116760636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -7632,19 +7632,19 @@
         <v>71034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60649</v>
+        <v>59531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>84109</v>
+        <v>83389</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08402106552514031</v>
+        <v>0.08402106552514033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07173676292436701</v>
+        <v>0.07041495056580785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09948548064925686</v>
+        <v>0.0986340165173881</v>
       </c>
     </row>
     <row r="20">
@@ -7661,19 +7661,19 @@
         <v>393433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>387242</v>
+        <v>386830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398206</v>
+        <v>398773</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9684061222924709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9531663693977316</v>
+        <v>0.9521522081423645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9801538671453229</v>
+        <v>0.981550210267499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>723</v>
@@ -7682,19 +7682,19 @@
         <v>380967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>370154</v>
+        <v>370269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>390635</v>
+        <v>391824</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8674789438315542</v>
+        <v>0.8674789438315541</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8428570926309021</v>
+        <v>0.8431179883239365</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8894926434132071</v>
+        <v>0.8922003571889708</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1272</v>
@@ -7703,19 +7703,19 @@
         <v>774401</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>761326</v>
+        <v>762046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>784786</v>
+        <v>785904</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9159789344748596</v>
+        <v>0.9159789344748598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9005145193507432</v>
+        <v>0.9013659834826119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9282632370756331</v>
+        <v>0.9295850494341922</v>
       </c>
     </row>
     <row r="21">
@@ -7807,19 +7807,19 @@
         <v>21109</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14961</v>
+        <v>14602</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30290</v>
+        <v>29287</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06815734814592354</v>
+        <v>0.06815734814592352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04830854340781444</v>
+        <v>0.04714948300958475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09780263233170063</v>
+        <v>0.09456598585854102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>118</v>
@@ -7828,19 +7828,19 @@
         <v>66466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55904</v>
+        <v>54251</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78183</v>
+        <v>77667</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1435311198111126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1207232621583296</v>
+        <v>0.1171528887433085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1688319642785177</v>
+        <v>0.1677190699902979</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -7849,19 +7849,19 @@
         <v>87575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74185</v>
+        <v>74912</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>102244</v>
+        <v>103217</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1133240066627993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09599745502055131</v>
+        <v>0.0969382959616778</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1323060596579603</v>
+        <v>0.1335656273250022</v>
       </c>
     </row>
     <row r="23">
@@ -7878,19 +7878,19 @@
         <v>288594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>279413</v>
+        <v>280416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>294742</v>
+        <v>295101</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9318426518540767</v>
+        <v>0.9318426518540763</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9021973676682994</v>
+        <v>0.9054340141414587</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9516914565921855</v>
+        <v>0.9528505169904152</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>760</v>
@@ -7899,19 +7899,19 @@
         <v>396613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>384896</v>
+        <v>385412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>407175</v>
+        <v>408828</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8564688801888876</v>
+        <v>0.8564688801888874</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8311680357214825</v>
+        <v>0.8322809300097024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8792767378416704</v>
+        <v>0.8828471112566916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1187</v>
@@ -7920,19 +7920,19 @@
         <v>685207</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>670538</v>
+        <v>669565</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>698597</v>
+        <v>697870</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8866759933372004</v>
+        <v>0.8866759933372007</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8676939403420396</v>
+        <v>0.866434372674998</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9040025449794492</v>
+        <v>0.9030617040383223</v>
       </c>
     </row>
     <row r="24">
@@ -8024,19 +8024,19 @@
         <v>65800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01863781850210536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>335</v>
@@ -8045,19 +8045,19 @@
         <v>203735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05459958888203455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -8066,19 +8066,19 @@
         <v>269535</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="26">
@@ -8095,19 +8095,19 @@
         <v>3464669</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3449588</v>
+        <v>3449360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3477994</v>
+        <v>3478662</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9813621814978946</v>
+        <v>0.9813621814978944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9770905010143235</v>
+        <v>0.9770259244152276</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9851366549584991</v>
+        <v>0.9853258428240479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5023</v>
@@ -8116,19 +8116,19 @@
         <v>3527706</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3506168</v>
+        <v>3503670</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3551126</v>
+        <v>3550406</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9454004111179656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9396284928798608</v>
+        <v>0.9389590169103507</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9516767120572885</v>
+        <v>0.9514839664868001</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8315</v>
@@ -8137,19 +8137,19 @@
         <v>6992375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6964631</v>
+        <v>6964943</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7017980</v>
+        <v>7018270</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9628836795209542</v>
+        <v>0.9628836795209539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9590632682070186</v>
+        <v>0.9591062546773766</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9664096416291222</v>
+        <v>0.9664495751253915</v>
       </c>
     </row>
     <row r="27">
